--- a/SchedulingData/dynamic14/pso/scheduling2_20.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,51 +470,51 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>239.58</v>
+        <v>208.82</v>
       </c>
       <c r="D2" t="n">
-        <v>283</v>
+        <v>276.84</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9</v>
+        <v>14.756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>206.1</v>
+        <v>276.84</v>
       </c>
       <c r="D3" t="n">
-        <v>305.12</v>
+        <v>328.42</v>
       </c>
       <c r="E3" t="n">
-        <v>12.488</v>
+        <v>11.228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>283</v>
+        <v>233.4</v>
       </c>
       <c r="D4" t="n">
-        <v>334.14</v>
+        <v>279.46</v>
       </c>
       <c r="E4" t="n">
-        <v>8.416</v>
+        <v>15.044</v>
       </c>
     </row>
     <row r="5">
@@ -523,169 +523,169 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>247.94</v>
+        <v>243.72</v>
       </c>
       <c r="D5" t="n">
-        <v>289</v>
+        <v>299.62</v>
       </c>
       <c r="E5" t="n">
-        <v>12.26</v>
+        <v>12.228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>334.14</v>
+        <v>219.34</v>
       </c>
       <c r="D6" t="n">
-        <v>374.2</v>
+        <v>262.9</v>
       </c>
       <c r="E6" t="n">
-        <v>6.04</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>216.08</v>
+        <v>279.46</v>
       </c>
       <c r="D7" t="n">
-        <v>263.08</v>
+        <v>345.22</v>
       </c>
       <c r="E7" t="n">
-        <v>12.892</v>
+        <v>11.068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>263.08</v>
+        <v>345.22</v>
       </c>
       <c r="D8" t="n">
-        <v>310.62</v>
+        <v>402.6</v>
       </c>
       <c r="E8" t="n">
-        <v>9.768000000000001</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>235.62</v>
+        <v>214.86</v>
       </c>
       <c r="D9" t="n">
-        <v>306.4</v>
+        <v>257.5</v>
       </c>
       <c r="E9" t="n">
-        <v>13.06</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>289</v>
+        <v>262.9</v>
       </c>
       <c r="D10" t="n">
-        <v>339.5</v>
+        <v>329.3</v>
       </c>
       <c r="E10" t="n">
-        <v>8.34</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>306.4</v>
+        <v>215.54</v>
       </c>
       <c r="D11" t="n">
-        <v>370.4</v>
+        <v>282.6</v>
       </c>
       <c r="E11" t="n">
-        <v>8.800000000000001</v>
+        <v>14.92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>370.4</v>
+        <v>282.6</v>
       </c>
       <c r="D12" t="n">
-        <v>418.54</v>
+        <v>342.16</v>
       </c>
       <c r="E12" t="n">
-        <v>6.096</v>
+        <v>12.544</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>285.7</v>
+        <v>328.42</v>
       </c>
       <c r="D13" t="n">
-        <v>331.66</v>
+        <v>417.12</v>
       </c>
       <c r="E13" t="n">
-        <v>11.924</v>
+        <v>6.468</v>
       </c>
     </row>
     <row r="14">
@@ -694,93 +694,93 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>339.5</v>
+        <v>299.62</v>
       </c>
       <c r="D14" t="n">
-        <v>394.6</v>
+        <v>377.02</v>
       </c>
       <c r="E14" t="n">
-        <v>3.96</v>
+        <v>9.068</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>394.6</v>
+        <v>417.12</v>
       </c>
       <c r="D15" t="n">
-        <v>439.06</v>
+        <v>473.06</v>
       </c>
       <c r="E15" t="n">
-        <v>1.144</v>
+        <v>2.984</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>439.06</v>
+        <v>329.3</v>
       </c>
       <c r="D16" t="n">
-        <v>518.47</v>
+        <v>403.5</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>418.54</v>
+        <v>377.02</v>
       </c>
       <c r="D17" t="n">
-        <v>471.54</v>
+        <v>449.12</v>
       </c>
       <c r="E17" t="n">
-        <v>2.936</v>
+        <v>5.988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>518.47</v>
+        <v>402.6</v>
       </c>
       <c r="D18" t="n">
-        <v>556.4299999999999</v>
+        <v>472.6</v>
       </c>
       <c r="E18" t="n">
-        <v>27.404</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="19">
@@ -789,60 +789,60 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>331.66</v>
+        <v>342.16</v>
       </c>
       <c r="D19" t="n">
-        <v>392.52</v>
+        <v>387.84</v>
       </c>
       <c r="E19" t="n">
-        <v>8.468</v>
+        <v>9.596</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>305.12</v>
+        <v>387.84</v>
       </c>
       <c r="D20" t="n">
-        <v>352.82</v>
+        <v>423.36</v>
       </c>
       <c r="E20" t="n">
-        <v>8.848000000000001</v>
+        <v>6.684</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>471.54</v>
+        <v>403.5</v>
       </c>
       <c r="D21" t="n">
-        <v>506.6</v>
+        <v>433.9</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>506.6</v>
+        <v>433.9</v>
       </c>
       <c r="D22" t="n">
-        <v>606.88</v>
+        <v>531.88</v>
       </c>
       <c r="E22" t="n">
         <v>30</v>
@@ -861,21 +861,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>352.82</v>
+        <v>257.5</v>
       </c>
       <c r="D23" t="n">
-        <v>408.62</v>
+        <v>308.56</v>
       </c>
       <c r="E23" t="n">
-        <v>5.888</v>
+        <v>8.984</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>374.2</v>
+        <v>473.06</v>
       </c>
       <c r="D24" t="n">
-        <v>473.8</v>
+        <v>531.66</v>
       </c>
       <c r="E24" t="n">
-        <v>1.66</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="25">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>473.8</v>
+        <v>531.66</v>
       </c>
       <c r="D25" t="n">
-        <v>537.48</v>
+        <v>641.47</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
@@ -922,112 +922,112 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>310.62</v>
+        <v>308.56</v>
       </c>
       <c r="D26" t="n">
-        <v>375.32</v>
+        <v>381.26</v>
       </c>
       <c r="E26" t="n">
-        <v>6.388</v>
+        <v>3.824</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>556.4299999999999</v>
+        <v>472.6</v>
       </c>
       <c r="D27" t="n">
-        <v>637.53</v>
+        <v>523.98</v>
       </c>
       <c r="E27" t="n">
-        <v>23.384</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>375.32</v>
+        <v>523.98</v>
       </c>
       <c r="D28" t="n">
-        <v>452.92</v>
+        <v>600.74</v>
       </c>
       <c r="E28" t="n">
-        <v>1.768</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>452.92</v>
+        <v>423.36</v>
       </c>
       <c r="D29" t="n">
-        <v>526.38</v>
+        <v>467.64</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>3.876</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>637.53</v>
+        <v>381.26</v>
       </c>
       <c r="D30" t="n">
-        <v>677.9299999999999</v>
+        <v>444.76</v>
       </c>
       <c r="E30" t="n">
-        <v>20.964</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>392.52</v>
+        <v>444.76</v>
       </c>
       <c r="D31" t="n">
-        <v>443.04</v>
+        <v>511.55</v>
       </c>
       <c r="E31" t="n">
-        <v>5.556</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1036,98 +1036,98 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>526.38</v>
+        <v>511.55</v>
       </c>
       <c r="D32" t="n">
-        <v>599.72</v>
+        <v>574.75</v>
       </c>
       <c r="E32" t="n">
-        <v>27.296</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>408.62</v>
+        <v>574.75</v>
       </c>
       <c r="D33" t="n">
-        <v>468.42</v>
+        <v>622.99</v>
       </c>
       <c r="E33" t="n">
-        <v>3.488</v>
+        <v>22.676</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537.48</v>
+        <v>449.12</v>
       </c>
       <c r="D34" t="n">
-        <v>593.76</v>
+        <v>523.1799999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>27.032</v>
+        <v>2.712</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>443.04</v>
+        <v>531.88</v>
       </c>
       <c r="D35" t="n">
-        <v>495.84</v>
+        <v>593.52</v>
       </c>
       <c r="E35" t="n">
-        <v>2.916</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>468.42</v>
+        <v>467.64</v>
       </c>
       <c r="D36" t="n">
-        <v>517.22</v>
+        <v>525.24</v>
       </c>
       <c r="E36" t="n">
-        <v>1.248</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>517.22</v>
+        <v>525.24</v>
       </c>
       <c r="D37" t="n">
-        <v>626.02</v>
+        <v>614.37</v>
       </c>
       <c r="E37" t="n">
         <v>30</v>
@@ -1146,135 +1146,154 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>593.76</v>
+        <v>622.99</v>
       </c>
       <c r="D38" t="n">
-        <v>637</v>
+        <v>668.87</v>
       </c>
       <c r="E38" t="n">
-        <v>24.328</v>
+        <v>19.708</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>495.84</v>
+        <v>593.52</v>
       </c>
       <c r="D39" t="n">
-        <v>581.61</v>
+        <v>658.62</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>24.096</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>581.61</v>
+        <v>600.74</v>
       </c>
       <c r="D40" t="n">
-        <v>660.87</v>
+        <v>647.78</v>
       </c>
       <c r="E40" t="n">
-        <v>26.724</v>
+        <v>25.996</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>637</v>
+        <v>668.87</v>
       </c>
       <c r="D41" t="n">
-        <v>673.38</v>
+        <v>717.01</v>
       </c>
       <c r="E41" t="n">
-        <v>21.82</v>
+        <v>17.004</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>599.72</v>
+        <v>641.47</v>
       </c>
       <c r="D42" t="n">
-        <v>651.2</v>
+        <v>680.5700000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>23.768</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>626.02</v>
+        <v>614.37</v>
       </c>
       <c r="D43" t="n">
-        <v>670.22</v>
+        <v>682.71</v>
       </c>
       <c r="E43" t="n">
-        <v>26.28</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>606.88</v>
+        <v>523.1799999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>671.36</v>
+        <v>558.24</v>
       </c>
       <c r="E44" t="n">
-        <v>27.192</v>
+        <v>0.336</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>depot1</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>558.24</v>
+      </c>
+      <c r="D45" t="n">
+        <v>663.97</v>
+      </c>
+      <c r="E45" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
